--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625614</v>
+        <v>399383.5293367552</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347747</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815497</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.3420634549344</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.396723986041062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.02307145248613494</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8461210887085</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>129.3420634549344</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>21.41405905276465</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443412</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>43.07008646612802</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880641</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887085</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.80234236397522</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>38.34834368612499</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.41405905276465</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>88.09081815943087</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="U8" t="n">
-        <v>187.52558716632</v>
+        <v>116.8405921356977</v>
       </c>
       <c r="V8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>230.6968828249245</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>48.28983649715951</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>81.77200357366353</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.9527516093519</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>251.1382003403116</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.62774187000176</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>260.8767548402204</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>45.23443023079781</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1982,7 +1982,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>63.92502798775072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>151.9554925943643</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>88.37584375131343</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.95866062610926</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>22.32798500961401</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>138.8992180371974</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>35.2113483754166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>336.1680648472528</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>188.2196394312111</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2684,7 +2684,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.48523805799945</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>226.8602185319219</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>74.69219553392823</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.944023270396605</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>157.065069289616</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.0573912450682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.75406055538262</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>4.880279655986366</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>96.47490797857078</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>73.76697517902063</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>20.47554896769133</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>161.2026687524962</v>
+        <v>194.7787730209281</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041371</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>107.9784290126182</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>117.7126336312584</v>
+        <v>205.9368310100323</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>188.2196394312103</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>141.4194510339631</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.44513792155707</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>190.4964353356102</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.4065201693362</v>
+        <v>400.302954365912</v>
       </c>
       <c r="C2" t="n">
-        <v>160.0771049282164</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709668</v>
+        <v>21.46338433294301</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709668</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066254</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>407.650846758856</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735303</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548342</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548342</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T2" t="n">
-        <v>439.0550691137144</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="U2" t="n">
-        <v>439.0550691137144</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="V2" t="n">
-        <v>439.0550691137144</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="W2" t="n">
-        <v>439.0550691137144</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0550691137144</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="Y2" t="n">
-        <v>439.0550691137144</v>
+        <v>589.7227393823965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616808</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415665</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>286.5382069752468</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530682</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408224</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200476</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>439.0550691137144</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T3" t="n">
-        <v>308.4065201693362</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U3" t="n">
-        <v>308.4065201693362</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V3" t="n">
-        <v>308.4065201693362</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="W3" t="n">
-        <v>160.0771049282164</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="X3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709668</v>
+        <v>30.55991817042133</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543237</v>
+        <v>709.3965921992907</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510262</v>
+        <v>725.346861488696</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665694</v>
+        <v>748.7753949309521</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665694</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="P4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V4" t="n">
-        <v>11.74768968709668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709668</v>
+        <v>697.3589686102946</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.5822427727902</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C5" t="n">
-        <v>203.5822427727902</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D5" t="n">
-        <v>203.5822427727902</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E5" t="n">
-        <v>160.0771049282164</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709668</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709668</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709668</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458394</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066254</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N5" t="n">
-        <v>407.650846758856</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735303</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548342</v>
+        <v>734.4611726020267</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>500.2410732550297</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>500.2410732550297</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>500.2410732550297</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U5" t="n">
-        <v>351.91165801391</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V5" t="n">
-        <v>351.91165801391</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W5" t="n">
-        <v>351.91165801391</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X5" t="n">
-        <v>351.91165801391</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.91165801391</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290.7256538725946</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="C6" t="n">
-        <v>290.7256538725946</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="D6" t="n">
-        <v>290.7256538725946</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="E6" t="n">
-        <v>290.7256538725946</v>
+        <v>191.896529081881</v>
       </c>
       <c r="F6" t="n">
-        <v>290.7256538725946</v>
+        <v>191.896529081881</v>
       </c>
       <c r="G6" t="n">
-        <v>153.107402543259</v>
+        <v>191.896529081881</v>
       </c>
       <c r="H6" t="n">
-        <v>50.48339038015223</v>
+        <v>90.03616812153786</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709668</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616808</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415665</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752468</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603237</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408224</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200476</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548342</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548342</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548342</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548342</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="W6" t="n">
-        <v>587.3844843548342</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="X6" t="n">
-        <v>587.3844843548342</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137144</v>
+        <v>219.9797031869065</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>33.37805236665694</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709668</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543237</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510262</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665694</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D8" t="n">
         <v>15.0020469733056</v>
@@ -4813,13 +4813,13 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020266</v>
@@ -4831,25 +4831,25 @@
         <v>672.2420264262255</v>
       </c>
       <c r="S8" t="n">
-        <v>583.26140202276</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T8" t="n">
-        <v>393.8416170062752</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="U8" t="n">
         <v>204.4218319897904</v>
       </c>
       <c r="V8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L9" t="n">
         <v>183.554828077265</v>
@@ -4895,40 +4895,40 @@
         <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487949</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="W9" t="n">
-        <v>560.6825636487949</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X9" t="n">
-        <v>371.2627786323101</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.8429936158253</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E10" t="n">
         <v>15.0020469733056</v>
@@ -4986,28 +4986,28 @@
         <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2209.232076102164</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102164</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181845</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181845</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181845</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181845</v>
+        <v>149.1100998399244</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1758.295537883724</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
         <v>1617.939223126803</v>
@@ -5275,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2144.895377947846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596504</v>
@@ -5469,19 +5469,19 @@
         <v>609.2899331452385</v>
       </c>
       <c r="U16" t="n">
-        <v>320.187066270882</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218342</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218342</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2051.278283189673</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C17" t="n">
-        <v>1682.315766249262</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1324.050067642511</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>938.261815044267</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>527.2759102546595</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>112.203460099656</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5518,16 +5518,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>2051.278283189673</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y17" t="n">
-        <v>2051.278283189673</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
@@ -5630,16 +5630,16 @@
         <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>450.1356741135884</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>281.1994911856815</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>131.0828517733458</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218342</v>
@@ -5706,19 +5706,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V19" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W19" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X19" t="n">
-        <v>631.7841389438281</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.7841389438281</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1771.429619686767</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5788,16 +5788,16 @@
         <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W20" t="n">
-        <v>2535.034709923658</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X20" t="n">
-        <v>2161.568951662578</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>1771.429619686767</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5855,28 +5855,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.68248070098065</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C22" t="n">
-        <v>87.68248070098065</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>87.68248070098065</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>87.68248070098065</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438281</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379413</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W22" t="n">
-        <v>87.68248070098065</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X22" t="n">
-        <v>87.68248070098065</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.68248070098065</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1672.191441142816</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C23" t="n">
-        <v>1672.191441142816</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.925742536066</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>928.1374899378213</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>517.1515851482138</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>102.0791349932103</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>102.0791349932103</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6022,19 +6022,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2788.565186649822</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2435.796531379708</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2062.330773118628</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1672.191441142816</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="24">
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>806.3384156653772</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.404020490881</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926365</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>298.629863103029</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
         <v>108.5090151927147</v>
@@ -6223,7 +6223,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6235,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.4698357812242</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>631.4698357812242</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>481.3531963688885</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>333.4401027864953</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>186.550155288585</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812242</v>
+        <v>185.0994634021637</v>
       </c>
       <c r="X28" t="n">
-        <v>631.4698357812242</v>
+        <v>185.0994634021637</v>
       </c>
       <c r="Y28" t="n">
-        <v>631.4698357812242</v>
+        <v>185.0994634021637</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1848.950422814787</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1479.987905874375</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1121.722207267625</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W29" t="n">
-        <v>3215.315153136265</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X29" t="n">
-        <v>3121.906610713899</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>2235.550262878909</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.0944266746548</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>700.0944266746548</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>700.0944266746548</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0944266746548</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218339</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919558</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,34 +6797,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3252.116871553228</v>
+        <v>218.331639340181</v>
       </c>
       <c r="C34" t="n">
-        <v>3083.180688625321</v>
+        <v>218.331639340181</v>
       </c>
       <c r="D34" t="n">
-        <v>2933.064049212985</v>
+        <v>218.331639340181</v>
       </c>
       <c r="E34" t="n">
-        <v>2785.150955630592</v>
+        <v>218.331639340181</v>
       </c>
       <c r="F34" t="n">
-        <v>2785.150955630592</v>
+        <v>71.44169184227067</v>
       </c>
       <c r="G34" t="n">
-        <v>2617.448119005311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.331639340181</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.331639340181</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.331639340181</v>
       </c>
       <c r="X34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.331639340181</v>
       </c>
       <c r="Y34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.331639340181</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1734.047335491681</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C35" t="n">
-        <v>1365.084818551269</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D35" t="n">
-        <v>1006.819119944519</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E35" t="n">
-        <v>621.0308673462746</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F35" t="n">
-        <v>621.0308673462746</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G35" t="n">
-        <v>205.9584171912711</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,10 +6949,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
@@ -6973,16 +6973,16 @@
         <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2884.252265792694</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X35" t="n">
-        <v>2510.786507531614</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y35" t="n">
-        <v>2120.647175555803</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7019,7 +7019,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
         <v>765.151745215813</v>
@@ -7034,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>846.3749096777597</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>677.4387267498528</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7095,52 +7095,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>846.3749096777597</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>846.3749096777597</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>846.3749096777597</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>846.3749096777597</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>846.3749096777597</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
         <v>1232.150970528558</v>
@@ -7171,22 +7171,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2735.124556099686</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2382.355900829572</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X38" t="n">
-        <v>2008.890142568492</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y38" t="n">
-        <v>1618.75081059268</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="39">
@@ -7244,28 +7244,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438281</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V40" t="n">
-        <v>631.7841389438281</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W40" t="n">
-        <v>468.9531604059532</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490881</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926365</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F41" t="n">
-        <v>298.629863103029</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,46 +7478,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>610.2994715124267</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="U43" t="n">
-        <v>321.1966046380703</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="V43" t="n">
-        <v>66.51211643218342</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="W43" t="n">
-        <v>66.51211643218342</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="X43" t="n">
-        <v>66.51211643218342</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218342</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7663,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3135.484973698856</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3135.484973698856</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>3135.484973698856</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2782.716318428742</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.250560167662</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.476813167026</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="C46" t="n">
-        <v>331.5406302391191</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="D46" t="n">
-        <v>331.5406302391191</v>
+        <v>226.983011325606</v>
       </c>
       <c r="E46" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>728.4663640650433</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>728.4663640650433</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V46" t="n">
-        <v>728.4663640650433</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W46" t="n">
-        <v>728.4663640650433</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X46" t="n">
-        <v>500.476813167026</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.476813167026</v>
+        <v>377.0996507379417</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.3917782085462</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C2" t="n">
-        <v>218.426770682299</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
-        <v>207.8369205319744</v>
+        <v>167.1574544543633</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5336460862207</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327426</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880641</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>67.23820498408318</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1407179132892</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354544</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827335</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345811</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>4.378130057857305</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>66.38305545459016</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8488620722111</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>58.92686411476893</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818783</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776032</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,31 +22743,31 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474421</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.630820612060649</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270552</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821569</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.887720574772</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>338.8602836061337</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.0299246530029</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327426</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>48.27134388011214</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827357</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.6870625611588</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>129.8427380914257</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.25136295742045</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827335</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345811</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.83657468859582</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>127.616033927503</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>106.2667394265578</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818783</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776032</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474421</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.0448796648253</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270552</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>70.68499503062223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>25.91829388988683</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871038</v>
+        <v>134.3286684293327</v>
       </c>
       <c r="V8" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.360646473772817</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23153,22 +23153,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.88401062568127</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715752</v>
+        <v>40.60044802738273</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213464</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23226,7 +23226,7 @@
         <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
-        <v>80.60642335625585</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>134.5760089460831</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>337.9481021588941</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>84.2538046853647</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.3201401616556</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>168.06888189215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9994429835163601</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>159.0819135190354</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>121.8570868232602</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>249.3733341565226</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>167.427799865174</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.50893465881845</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>213.3173991766432</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>281.3552569271556</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.067147632919</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2566683424808</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>243.8346236262832</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>6.365581397509352</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,16 +24417,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>45.76230522500896</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>222.7020862222423</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>62.43050668165678</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>143.5405702010288</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24660,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>155.0701515403399</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.74176711264094</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>218.7656321186406</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>208.2078224813915</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>255.1805474109854</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.0779196265547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>161.1455286030419</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>198.1328564087497</v>
+        <v>173.9989569713598</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>212.4448630265923</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>290.9502639294492</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>125.3203295840948</v>
+        <v>91.74422531566293</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493163</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>278.2595096434353</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>101.8363156449108</v>
+        <v>13.61211826613695</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>15.69833070840988</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>244.8184876220905</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9888247250121</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>29.05251394055904</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769752</v>
+        <v>433263.0758337674</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112605</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="F2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="H2" t="n">
         <v>296136.8796318746</v>
@@ -26337,25 +26337,25 @@
         <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="L2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="L2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="O2" t="n">
-        <v>296136.8796318744</v>
-      </c>
       <c r="P2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751303</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074477</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336673</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613406</v>
+        <v>49064.9447285445</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904856</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678773</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602627</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602627</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="D4" t="n">
         <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
         <v>584.646989006123</v>
@@ -26447,16 +26447,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902089</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902089</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.0977908509</v>
+        <v>-510698.8849732615</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.3371842794</v>
+        <v>80658.01754758329</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587344</v>
+        <v>80658.01754758327</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521921</v>
+        <v>-409962.7469303622</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033059</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814748</v>
+        <v>217171.8967033052</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.4855753409</v>
+        <v>168106.9519747611</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324267</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359784</v>
+        <v>56715.45483542811</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814748</v>
+        <v>217171.8967033055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129047</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568398</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803934</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761141</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761129</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359726</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761141</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903398</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877943</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766334</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154183</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871683</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270566</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695509</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961052</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656775</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611123</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339631</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645456</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383933</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986735</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358322</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206852</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720418</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>222.6641930179335</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050584</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297034</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864953</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793584</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120828</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674033</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910841</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903398</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877943</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766334</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154183</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871683</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270566</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695509</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961052</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656775</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611123</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339631</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645456</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383933</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358322</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206852</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>238.7894450985625</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050584</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297034</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864953</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793584</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120828</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674033</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910841</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043779</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718106</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>137.90816207296</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744185</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040798</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431455</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>100.600008055958</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986669</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887085</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>80.06794857348902</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679312</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.617141247259184</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945134</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394199</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813567</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043779</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718106</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>137.90816207296</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744185</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040798</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
-        <v>100.600008055958</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986669</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>107.4477330152292</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469683</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679312</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.617141247259184</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945134</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394199</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813567</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
